--- a/medicine/Enfance/Cours_moyen_1re_année/Cours_moyen_1re_année.xlsx
+++ b/medicine/Enfance/Cours_moyen_1re_année/Cours_moyen_1re_année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cours_moyen_1re_ann%C3%A9e</t>
+          <t>Cours_moyen_1re_année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cours moyen 1re année (CM1), ou première année du cycle 3, est l'avant-dernier niveau (avant l'entrée au collège) de l'école primaire en France. Les enfants y accèdent au mois de septembre de l'année où ils fêtent leur neuvième anniversaire. L'âge typique des élèves durant cette année scolaire est donc de 9 à 10 ans.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cours_moyen_1re_ann%C3%A9e</t>
+          <t>Cours_moyen_1re_année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cours_moyen_1re_ann%C3%A9e</t>
+          <t>Cours_moyen_1re_année</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,9 +553,11 @@
           <t>Programmes actuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les élèves du CM1 bénéficient d'un enseignement multiple et complet de 24 heures hebdomadaires[2]. Ces horaires sont communs aux deux premiers niveaux du cycle 3 (CM1 et CM2).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élèves du CM1 bénéficient d'un enseignement multiple et complet de 24 heures hebdomadaires. Ces horaires sont communs aux deux premiers niveaux du cycle 3 (CM1 et CM2).
 ↑ 12 heures hebdomadaires sont consacrées à des activités quotidiennes d'oral, de lecture et d'écriture qui prennent appui sur l'ensemble des champs disciplinaires.
 ↑ Enseignement moral et civique : 36 heures annuelles, soit 1 heure hebdomadaire dont 0 h 30 est consacrée à des situations pratiques favorisant l'expression orale.
 </t>
